--- a/public/sample/Import_device_on_PLAN_template.xlsx
+++ b/public/sample/Import_device_on_PLAN_template.xlsx
@@ -22,10 +22,10 @@
     <t>Device name: Nhập tên thiết bị, không được bỏ trống</t>
   </si>
   <si>
-    <t>OS: Chọn hệ điều hành trong danh sách, không được bổ trống</t>
+    <t>OS: Chọn hệ điều hành trong danh sách, không được bỏ trống</t>
   </si>
   <si>
-    <t>Expire date: Nhập đúng định dạng ngày tháng "dd/mm/yyyy" (VD: 23/09/2022)</t>
+    <t>Expire date: Nhập đúng định dạng ngày tháng  năm "dd/mm/yyyy" (VD: 23/09/2022)</t>
   </si>
   <si>
     <t>Register code: Nhập mã đăng ký của thiết bị, không được bỏ trống</t>
@@ -50,10 +50,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -77,16 +77,137 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,135 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,103 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +255,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +327,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,19 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +387,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +446,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -465,16 +482,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,26 +520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,160 +543,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,10 +697,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +972,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1006,7 +999,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="12.75" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6860,10 +6853,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input data" promptTitle="Nhập đúng định dạng ngày" prompt="dd/mm/yyyy" sqref="C8:C975"/>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input data" sqref="B8:B975">
       <formula1>"Windows,MacOS"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input data" promptTitle="Nhập đúng định dạng ngày" prompt="dd/mm/yyyy" sqref="C8:C975"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/public/sample/Import_device_on_PLAN_template.xlsx
+++ b/public/sample/Import_device_on_PLAN_template.xlsx
@@ -25,7 +25,7 @@
     <t>OS: Chọn hệ điều hành trong danh sách, không được bỏ trống</t>
   </si>
   <si>
-    <t>Expire date: Nhập đúng định dạng ngày tháng  năm "dd/mm/yyyy" (VD: 23/09/2022)</t>
+    <t>Expire date: Nhập đúng định dạng ngày tháng năm "dd/mm/yyyy" (VD: 23/09/2022)</t>
   </si>
   <si>
     <t>Register code: Nhập mã đăng ký của thiết bị, không được bỏ trống</t>
@@ -50,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -77,49 +77,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,7 +107,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,13 +123,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +145,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -192,7 +184,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -200,7 +200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +315,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,31 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,109 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,52 +446,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,11 +479,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,148 +546,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -972,7 +972,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -999,7 +999,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="12.75" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6853,10 +6853,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input data" promptTitle="Nhập đúng định dạng ngày" prompt="dd/mm/yyyy" sqref="C8:C975"/>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input data" sqref="B8:B975">
       <formula1>"Windows,MacOS"</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input data" promptTitle="Nhập đúng định dạng ngày" prompt="dd/mm/yyyy" sqref="C8:C975"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
